--- a/InputData/elec/BTaDLP/BAU Trans and Distr Loss Perc.xlsx
+++ b/InputData/elec/BTaDLP/BAU Trans and Distr Loss Perc.xlsx
@@ -4,51 +4,68 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7755"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="19420" windowHeight="7530" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="About" sheetId="1" r:id="rId1"/>
-    <sheet name="BTaDLP" sheetId="2" r:id="rId2"/>
+    <sheet name="Calculations" sheetId="4" r:id="rId2"/>
+    <sheet name="BTaDLP" sheetId="2" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="145621"/>
+  <calcPr calcId="171027" concurrentCalc="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="13">
+  <si>
+    <t>BTaDLP BAU Transmission and Distribution Loss Percentage</t>
+  </si>
   <si>
     <t>Source:</t>
   </si>
   <si>
+    <t>Comisión Federal de Electricidad (CFE)</t>
+  </si>
+  <si>
+    <t>Comisión Federal de Electricidad</t>
+  </si>
+  <si>
+    <t>Year</t>
+  </si>
+  <si>
+    <t>Transmission and Distribution Loss Percentage</t>
+  </si>
+  <si>
+    <t>We assume T&amp;D losses are constant at the average value for this period.</t>
+  </si>
+  <si>
+    <t>Average</t>
+  </si>
+  <si>
     <t>Trans and Dist Loss Perc</t>
   </si>
   <si>
-    <t>Electricity</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Secretaría de Energía </t>
-  </si>
-  <si>
-    <t>Programa de Desarrollo del Sistema Eléctrico Nacional 2015-2029</t>
-  </si>
-  <si>
-    <t>Page 114, Graph 7.2.1</t>
-  </si>
-  <si>
-    <t>http://www.energia.gob.mx/portal/Default_intermedia.aspx?id=3222</t>
-  </si>
-  <si>
-    <t>BTaDLP BAU Transmission and Distribution Loss Percentage</t>
+    <t>Informe Anual 2016</t>
+  </si>
+  <si>
+    <t>Informe Anual 2016 - CFE</t>
+  </si>
+  <si>
+    <t>http://www.cfe.gob.mx/inversionistas/informacionareguladores/Documents/Informe%20Anual/Informe%20Anual%202016%20CFE.pdf</t>
+  </si>
+  <si>
+    <t>Page 13</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <numFmts count="1">
+  <numFmts count="2">
     <numFmt numFmtId="164" formatCode="0.000"/>
+    <numFmt numFmtId="165" formatCode="0.0000"/>
   </numFmts>
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -72,6 +89,12 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -90,25 +113,29 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="2">
+  <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="2"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="165" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
-  <cellStyles count="2">
-    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
+  <cellStyles count="3">
+    <cellStyle name="Hyperlink" xfId="2"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal 2" xfId="1"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -121,6 +148,61 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>466725</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>180975</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>390524</xdr:colOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>110834</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="3" name="Imagen 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{46EE9118-E2A5-4B3A-9CFF-3DFFF967B882}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4886325" y="752475"/>
+          <a:ext cx="6019799" cy="3930359"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -412,41 +494,43 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B7"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B8" sqref="B8"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.1796875" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A3" s="1" t="s">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="B4" s="2">
-        <v>2015</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+        <v>2016</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="B5" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="B6" s="3" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" ht="15" x14ac:dyDescent="0.25">
+      <c r="B6" s="5" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="B7" t="s">
-        <v>5</v>
+        <v>12</v>
       </c>
     </row>
   </sheetData>
@@ -457,30 +541,449 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:C23"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B23" sqref="B23"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9.1796875" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="1" max="1" width="11.453125" customWidth="1"/>
+    <col min="2" max="2" width="9.1796875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" ht="15" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" ht="15" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>4</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" ht="15" x14ac:dyDescent="0.25">
+      <c r="A5" s="1">
+        <v>2002</v>
+      </c>
+      <c r="B5" s="6">
+        <v>0.106</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" ht="15" x14ac:dyDescent="0.25">
+      <c r="A6" s="1">
+        <v>2003</v>
+      </c>
+      <c r="B6" s="6">
+        <v>0.1101</v>
+      </c>
+      <c r="C6" s="4"/>
+    </row>
+    <row r="7" spans="1:3" ht="15" x14ac:dyDescent="0.25">
+      <c r="A7" s="1">
+        <v>2004</v>
+      </c>
+      <c r="B7" s="6">
+        <v>0.11219999999999999</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" ht="15" x14ac:dyDescent="0.25">
+      <c r="A8" s="1">
+        <v>2005</v>
+      </c>
+      <c r="B8" s="6">
+        <v>0.1162</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" ht="15" x14ac:dyDescent="0.25">
+      <c r="A9" s="1">
+        <v>2006</v>
+      </c>
+      <c r="B9" s="6">
+        <v>0.11550000000000001</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" ht="15" x14ac:dyDescent="0.25">
+      <c r="A10" s="1">
+        <v>2007</v>
+      </c>
+      <c r="B10" s="6">
+        <v>0.11700000000000001</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" ht="15" x14ac:dyDescent="0.25">
+      <c r="A11" s="1">
+        <v>2008</v>
+      </c>
+      <c r="B11" s="6">
+        <v>0.1179</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" ht="15" x14ac:dyDescent="0.25">
+      <c r="A12" s="1">
+        <v>2009</v>
+      </c>
+      <c r="B12" s="6">
+        <v>0.1246</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" ht="15" x14ac:dyDescent="0.25">
+      <c r="A13" s="1">
+        <v>2010</v>
+      </c>
+      <c r="B13" s="6">
+        <v>0.161</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" ht="15" x14ac:dyDescent="0.25">
+      <c r="A14" s="1">
+        <v>2011</v>
+      </c>
+      <c r="B14" s="6">
+        <v>0.15859999999999999</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" ht="15" x14ac:dyDescent="0.25">
+      <c r="A15" s="1">
+        <v>2012</v>
+      </c>
+      <c r="B15" s="6">
+        <v>0.15329999999999999</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" ht="15" x14ac:dyDescent="0.25">
+      <c r="A16" s="1">
+        <v>2013</v>
+      </c>
+      <c r="B16" s="6">
+        <v>0.1464</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" ht="15" x14ac:dyDescent="0.25">
+      <c r="A17" s="1">
+        <v>2014</v>
+      </c>
+      <c r="B17" s="6">
+        <v>0.13850000000000001</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" ht="15" x14ac:dyDescent="0.25">
+      <c r="A18" s="1">
+        <v>2015</v>
+      </c>
+      <c r="B18" s="6">
+        <v>0.13109999999999999</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" ht="15" x14ac:dyDescent="0.25">
+      <c r="A19" s="1">
+        <v>2016</v>
+      </c>
+      <c r="B19" s="6">
+        <v>0.1236</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" ht="15" x14ac:dyDescent="0.25">
+      <c r="A20" s="1"/>
+      <c r="B20" s="4"/>
+    </row>
+    <row r="21" spans="1:2" ht="15" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2" ht="15" x14ac:dyDescent="0.25">
+      <c r="B22" s="4"/>
+    </row>
+    <row r="23" spans="1:2" ht="15" x14ac:dyDescent="0.25">
+      <c r="A23" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B23" s="7">
+        <f>AVERAGE(B5:B19)</f>
+        <v>0.1288</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <tabColor theme="3"/>
   </sheetPr>
-  <dimension ref="A1:B2"/>
+  <dimension ref="A1:AJ2"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.1796875" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="14.42578125" customWidth="1"/>
-    <col min="2" max="2" width="26.140625" customWidth="1"/>
+    <col min="1" max="1" width="22" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="B1" s="4" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
-        <v>2</v>
-      </c>
-      <c r="B2" s="5">
-        <v>0.13900000000000001</v>
+    <row r="1" spans="1:36" x14ac:dyDescent="0.25">
+      <c r="B1">
+        <v>2016</v>
+      </c>
+      <c r="C1">
+        <v>2017</v>
+      </c>
+      <c r="D1">
+        <v>2018</v>
+      </c>
+      <c r="E1">
+        <v>2019</v>
+      </c>
+      <c r="F1">
+        <v>2020</v>
+      </c>
+      <c r="G1">
+        <v>2021</v>
+      </c>
+      <c r="H1">
+        <v>2022</v>
+      </c>
+      <c r="I1">
+        <v>2023</v>
+      </c>
+      <c r="J1">
+        <v>2024</v>
+      </c>
+      <c r="K1">
+        <v>2025</v>
+      </c>
+      <c r="L1">
+        <v>2026</v>
+      </c>
+      <c r="M1">
+        <v>2027</v>
+      </c>
+      <c r="N1">
+        <v>2028</v>
+      </c>
+      <c r="O1">
+        <v>2029</v>
+      </c>
+      <c r="P1">
+        <v>2030</v>
+      </c>
+      <c r="Q1">
+        <v>2031</v>
+      </c>
+      <c r="R1">
+        <v>2032</v>
+      </c>
+      <c r="S1">
+        <v>2033</v>
+      </c>
+      <c r="T1">
+        <v>2034</v>
+      </c>
+      <c r="U1">
+        <v>2035</v>
+      </c>
+      <c r="V1">
+        <v>2036</v>
+      </c>
+      <c r="W1">
+        <v>2037</v>
+      </c>
+      <c r="X1">
+        <v>2038</v>
+      </c>
+      <c r="Y1">
+        <v>2039</v>
+      </c>
+      <c r="Z1">
+        <v>2040</v>
+      </c>
+      <c r="AA1">
+        <v>2041</v>
+      </c>
+      <c r="AB1">
+        <v>2042</v>
+      </c>
+      <c r="AC1">
+        <v>2043</v>
+      </c>
+      <c r="AD1">
+        <v>2044</v>
+      </c>
+      <c r="AE1">
+        <v>2045</v>
+      </c>
+      <c r="AF1">
+        <v>2046</v>
+      </c>
+      <c r="AG1">
+        <v>2047</v>
+      </c>
+      <c r="AH1">
+        <v>2048</v>
+      </c>
+      <c r="AI1">
+        <v>2049</v>
+      </c>
+      <c r="AJ1">
+        <v>2050</v>
+      </c>
+    </row>
+    <row r="2" spans="1:36" x14ac:dyDescent="0.25">
+      <c r="A2" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="B2" s="6">
+        <f>Calculations!B23</f>
+        <v>0.1288</v>
+      </c>
+      <c r="C2" s="6">
+        <f t="shared" ref="C2:AJ2" si="0">$B2</f>
+        <v>0.1288</v>
+      </c>
+      <c r="D2" s="6">
+        <f t="shared" si="0"/>
+        <v>0.1288</v>
+      </c>
+      <c r="E2" s="6">
+        <f t="shared" si="0"/>
+        <v>0.1288</v>
+      </c>
+      <c r="F2" s="6">
+        <f t="shared" si="0"/>
+        <v>0.1288</v>
+      </c>
+      <c r="G2" s="6">
+        <f t="shared" si="0"/>
+        <v>0.1288</v>
+      </c>
+      <c r="H2" s="6">
+        <f t="shared" si="0"/>
+        <v>0.1288</v>
+      </c>
+      <c r="I2" s="6">
+        <f t="shared" si="0"/>
+        <v>0.1288</v>
+      </c>
+      <c r="J2" s="6">
+        <f t="shared" si="0"/>
+        <v>0.1288</v>
+      </c>
+      <c r="K2" s="6">
+        <f t="shared" si="0"/>
+        <v>0.1288</v>
+      </c>
+      <c r="L2" s="6">
+        <f t="shared" si="0"/>
+        <v>0.1288</v>
+      </c>
+      <c r="M2" s="6">
+        <f t="shared" si="0"/>
+        <v>0.1288</v>
+      </c>
+      <c r="N2" s="6">
+        <f t="shared" si="0"/>
+        <v>0.1288</v>
+      </c>
+      <c r="O2" s="6">
+        <f t="shared" si="0"/>
+        <v>0.1288</v>
+      </c>
+      <c r="P2" s="6">
+        <f t="shared" si="0"/>
+        <v>0.1288</v>
+      </c>
+      <c r="Q2" s="6">
+        <f t="shared" si="0"/>
+        <v>0.1288</v>
+      </c>
+      <c r="R2" s="6">
+        <f t="shared" si="0"/>
+        <v>0.1288</v>
+      </c>
+      <c r="S2" s="6">
+        <f t="shared" si="0"/>
+        <v>0.1288</v>
+      </c>
+      <c r="T2" s="6">
+        <f t="shared" si="0"/>
+        <v>0.1288</v>
+      </c>
+      <c r="U2" s="6">
+        <f t="shared" si="0"/>
+        <v>0.1288</v>
+      </c>
+      <c r="V2" s="6">
+        <f t="shared" si="0"/>
+        <v>0.1288</v>
+      </c>
+      <c r="W2" s="6">
+        <f t="shared" si="0"/>
+        <v>0.1288</v>
+      </c>
+      <c r="X2" s="6">
+        <f t="shared" si="0"/>
+        <v>0.1288</v>
+      </c>
+      <c r="Y2" s="6">
+        <f t="shared" si="0"/>
+        <v>0.1288</v>
+      </c>
+      <c r="Z2" s="6">
+        <f t="shared" si="0"/>
+        <v>0.1288</v>
+      </c>
+      <c r="AA2" s="6">
+        <f t="shared" si="0"/>
+        <v>0.1288</v>
+      </c>
+      <c r="AB2" s="6">
+        <f t="shared" si="0"/>
+        <v>0.1288</v>
+      </c>
+      <c r="AC2" s="6">
+        <f t="shared" si="0"/>
+        <v>0.1288</v>
+      </c>
+      <c r="AD2" s="6">
+        <f t="shared" si="0"/>
+        <v>0.1288</v>
+      </c>
+      <c r="AE2" s="6">
+        <f t="shared" si="0"/>
+        <v>0.1288</v>
+      </c>
+      <c r="AF2" s="6">
+        <f t="shared" si="0"/>
+        <v>0.1288</v>
+      </c>
+      <c r="AG2" s="6">
+        <f t="shared" si="0"/>
+        <v>0.1288</v>
+      </c>
+      <c r="AH2" s="6">
+        <f t="shared" si="0"/>
+        <v>0.1288</v>
+      </c>
+      <c r="AI2" s="6">
+        <f t="shared" si="0"/>
+        <v>0.1288</v>
+      </c>
+      <c r="AJ2" s="6">
+        <f t="shared" si="0"/>
+        <v>0.1288</v>
       </c>
     </row>
   </sheetData>
